--- a/파이썬/코딩교실 매크로/2.코딩교실운영/영상다운로드+링크발송/영상보내기.xlsx
+++ b/파이썬/코딩교실 매크로/2.코딩교실운영/영상다운로드+링크발송/영상보내기.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Desktop\매크로모음\코딩교실 매크로\2.코딩교실운영\영상다운로드+링크발송\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\2.코딩교실운영\영상다운로드+링크발송\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B98190-3CA8-4260-8F25-95A32D67330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EA6CC0-6FC6-4D77-B4B0-C8AA137ED978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="135" windowWidth="25785" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31425" yWindow="2115" windowWidth="27735" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,19 +328,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,7 +662,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -694,7 +694,7 @@
       <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P1" s="6" t="s">
@@ -716,7 +716,7 @@
       <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -737,13 +737,13 @@
       <c r="N3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="R3"/>
@@ -759,13 +759,13 @@
       <c r="N4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
       <c r="P5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -810,7 +810,7 @@
       <c r="P7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
       <c r="P8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
       <c r="P9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -873,49 +873,49 @@
     </row>
     <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13"/>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="12" t="s">
+      <c r="O13" s="16"/>
+      <c r="P13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:24" ht="16.5" customHeight="1">
       <c r="A14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19"/>

--- a/파이썬/코딩교실 매크로/2.코딩교실운영/영상다운로드+링크발송/영상보내기.xlsx
+++ b/파이썬/코딩교실 매크로/2.코딩교실운영/영상다운로드+링크발송/영상보내기.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\2.코딩교실운영\영상다운로드+링크발송\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Desktop\영상다운로드+링크발송\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EA6CC0-6FC6-4D77-B4B0-C8AA137ED978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4B9C0-6365-4A22-A314-67CB07CD6BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="2115" windowWidth="27735" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="588" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>날짜</t>
   </si>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01053006552</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>녹화 및 대화 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +180,35 @@
     <t>만약 줌이나 문자박스 로그인 정보가 달라지면 수정
 알람받을 번호는 변경 가능
 '녹화 및 대화 내용' 페이지가 한국어인지 영어인지 확인하여 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3화목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3드라이브링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회신번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1PEjJgXcd8yQ36Z_aX5teUduJfuM-eDtpXW3LtkF7_sk/edit?gid=1066845978#gid=1066845978</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1RAJpX8PreBI6sfWAZGIxZeal93_MAC8lxd-XmtlpgzU/edit?gid=1066845978#gid=1066845978</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1YjlEIfO-aseP5tTahTIbFJIf-WWtxULr</t>
+  </si>
+  <si>
+    <t>01054237685</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,32 +684,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="58.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="58.09765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="0" style="4" hidden="1"/>
-    <col min="5" max="5" width="10.625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8984375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.09765625" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="0" style="4" hidden="1"/>
-    <col min="11" max="11" width="10.625" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.875" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.75" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.25" style="5" customWidth="1"/>
-    <col min="16" max="16" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="30.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.8984375" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.69921875" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.19921875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.8984375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="30.59765625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="27" width="9" style="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
@@ -775,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>30</v>
@@ -805,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>32</v>
@@ -862,60 +887,56 @@
     <row r="11" spans="1:24" ht="16.5" customHeight="1">
       <c r="A11"/>
       <c r="N11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>38</v>
+      <c r="P11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16.5" customHeight="1">
       <c r="A12"/>
+      <c r="P12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13"/>
-      <c r="N13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="16"/>
+      <c r="P13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="16.5" customHeight="1">
       <c r="A14"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="P14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>53004709</v>
+      </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19"/>
@@ -923,10 +944,50 @@
     <row r="20" spans="1:17">
       <c r="A20"/>
     </row>
+    <row r="21" spans="1:17">
+      <c r="N21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N13:O18"/>
-    <mergeCell ref="P13:Q18"/>
+    <mergeCell ref="N21:O26"/>
+    <mergeCell ref="P21:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/파이썬/코딩교실 매크로/2.코딩교실운영/영상다운로드+링크발송/영상보내기.xlsx
+++ b/파이썬/코딩교실 매크로/2.코딩교실운영/영상다운로드+링크발송/영상보내기.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\2.코딩교실운영\영상다운로드+링크발송\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EA6CC0-6FC6-4D77-B4B0-C8AA137ED978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB940C-B97F-4CB8-9DA3-A499B0465DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="2115" windowWidth="27735" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33360" yWindow="390" windowWidth="29055" windowHeight="19410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>날짜</t>
   </si>
@@ -98,18 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1-1pjwXtV_WN4L9MtimJMgzpT5oYXl70LjFvK3Oljc8Q/edit?gid=1798834338#gid=1798834338</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1tuZ6E8XAiJPEkQdxd7KMiOytNYjAYn1F-5vIb5UUJdE/edit?gid=1066845978#gid=1066845978</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/u/0/folders/1Cep60thuNpKQcZMlv90y6-7MAzEsrw7r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,6 +173,31 @@
     <t>만약 줌이나 문자박스 로그인 정보가 달라지면 수정
 알람받을 번호는 변경 가능
 '녹화 및 대화 내용' 페이지가 한국어인지 영어인지 확인하여 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1PEjJgXcd8yQ36Z_aX5teUduJfuM-eDtpXW3LtkF7_sk/edit?gid=1066845978#gid=1066845978</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1RAJpX8PreBI6sfWAZGIxZeal93_MAC8lxd-XmtlpgzU/edit?gid=1066845978#gid=1066845978</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1YjlEIfO-aseP5tTahTIbFJIf-WWtxULr?usp=drive_link</t>
+  </si>
+  <si>
+    <t>3월수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3화목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3드라이브링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회신번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -701,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1"/>
@@ -741,10 +755,10 @@
         <v>15</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="R3"/>
       <c r="S3"/>
@@ -763,10 +777,10 @@
         <v>16</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
@@ -775,13 +789,13 @@
         <v>20</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1">
@@ -793,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="8">
-        <v>53006552</v>
+        <v>53004709</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="16.5" customHeight="1">
@@ -805,13 +819,13 @@
         <v>5</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" customHeight="1">
@@ -823,10 +837,10 @@
         <v>7</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16.5" customHeight="1">
@@ -838,10 +852,10 @@
         <v>9</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16.5" customHeight="1">
@@ -853,54 +867,66 @@
         <v>11</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="8">
-        <v>53004310</v>
+        <v>53006552</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16.5" customHeight="1">
       <c r="A11"/>
       <c r="N11" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16.5" customHeight="1">
       <c r="A12"/>
+      <c r="P12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13"/>
-      <c r="N13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="16"/>
+      <c r="P13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="16.5" customHeight="1">
       <c r="A14"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="P14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>53004310</v>
+      </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16"/>
-      <c r="N16" s="16"/>
+      <c r="N16" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="P16" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17">
@@ -919,27 +945,42 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N13:O18"/>
-    <mergeCell ref="P13:Q18"/>
+    <mergeCell ref="N16:O21"/>
+    <mergeCell ref="P16:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="O2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="O1" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" location="gid=1066845978" xr:uid="{B3B6B773-F4AB-4F56-BAFF-BEB25229EBEB}"/>
-    <hyperlink ref="Q5" r:id="rId5" xr:uid="{59C1BCA7-07CD-459B-8EC5-26DFD31FD97C}"/>
-    <hyperlink ref="Q7" r:id="rId6" location="gid=1066845978" xr:uid="{5077D61C-BEAF-4EE9-BBB6-557CEE64FC02}"/>
-    <hyperlink ref="Q8" r:id="rId7" location="gid=1798834338" xr:uid="{AB2AAEEE-4B8E-4AC8-A26E-484E0587F8F2}"/>
-    <hyperlink ref="Q9" r:id="rId8" xr:uid="{499DDFAA-7082-494B-BAF2-57EFC446E64B}"/>
+    <hyperlink ref="Q7" r:id="rId4" location="gid=1066845978" xr:uid="{5077D61C-BEAF-4EE9-BBB6-557CEE64FC02}"/>
+    <hyperlink ref="Q8" r:id="rId5" location="gid=1798834338" xr:uid="{AB2AAEEE-4B8E-4AC8-A26E-484E0587F8F2}"/>
+    <hyperlink ref="Q9" r:id="rId6" xr:uid="{499DDFAA-7082-494B-BAF2-57EFC446E64B}"/>
+    <hyperlink ref="Q11" r:id="rId7" location="gid=1066845978" xr:uid="{D0D2A38E-A312-4FB6-BC4A-9460D1CF1B61}"/>
+    <hyperlink ref="Q12" r:id="rId8" location="gid=1798834338" xr:uid="{62B7DA48-78A7-4D78-BB26-DF668D618049}"/>
+    <hyperlink ref="Q13" r:id="rId9" xr:uid="{58D365B5-11FC-4D27-816B-7AF84FD951F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>